--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p6_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p6_data.xlsx
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1614,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>0</v>
